--- a/09_Review/Changelog.xlsx
+++ b/09_Review/Changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Altium_Project\7_OBC_V111\NANORACK_V2_OBC_1.1.1_HW\09_Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001B625C-4AA4-4FA1-9286-DA95302EAB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A95EA83-A4C7-4487-8B94-46A1B06A4368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F39EBD3B-1BDB-4240-8E93-ACBBBD63CA50}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
   <si>
     <t>V111 compare to V110</t>
   </si>
@@ -171,6 +171,15 @@
   </si>
   <si>
     <t>Thêm 2 jumper J13 J14 nối 3.3V với 3.3_EXP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPI6 Pullup MISO </t>
+  </si>
+  <si>
+    <t>CM4_SPI1_MISO pull-up</t>
+  </si>
+  <si>
+    <t>STM_SPI5_MOSI pull-up</t>
   </si>
 </sst>
 </file>
@@ -200,7 +209,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -223,14 +232,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16CAA68-ECD4-4D31-85BA-219B585880BF}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -941,6 +962,21 @@
       </c>
       <c r="F22" s="1"/>
     </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E23" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E24" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E25" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
